--- a/outcome/simulate data/B_Hydatidosis.xlsx
+++ b/outcome/simulate data/B_Hydatidosis.xlsx
@@ -412,19 +412,19 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>366.525309894669</v>
+        <v>354.379574334572</v>
       </c>
       <c r="C2" t="n">
-        <v>194.667967816284</v>
+        <v>227.738642303421</v>
       </c>
       <c r="D2" t="n">
-        <v>139.257677208854</v>
+        <v>180.210939509849</v>
       </c>
       <c r="E2" t="n">
-        <v>690.102251029639</v>
+        <v>551.443011319234</v>
       </c>
       <c r="F2" t="n">
-        <v>964.692256010437</v>
+        <v>696.877132138187</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>44713</v>
@@ -450,19 +450,19 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>403.879406356997</v>
+        <v>414.440794375639</v>
       </c>
       <c r="C3" t="n">
-        <v>213.395503147077</v>
+        <v>264.790009814233</v>
       </c>
       <c r="D3" t="n">
-        <v>152.235222596546</v>
+        <v>208.885010222816</v>
       </c>
       <c r="E3" t="n">
-        <v>764.395558827008</v>
+        <v>648.669382063213</v>
       </c>
       <c r="F3" t="n">
-        <v>1071.49036929237</v>
+        <v>822.276198083791</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>44743</v>
@@ -488,19 +488,19 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>383.065759803637</v>
+        <v>385.72999617219</v>
       </c>
       <c r="C4" t="n">
-        <v>201.357659425354</v>
+        <v>245.033812378223</v>
       </c>
       <c r="D4" t="n">
-        <v>143.256033860017</v>
+        <v>192.712609844422</v>
       </c>
       <c r="E4" t="n">
-        <v>728.749910744449</v>
+        <v>607.212647523666</v>
       </c>
       <c r="F4" t="n">
-        <v>1024.31550267072</v>
+        <v>772.07002731744</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>44774</v>
@@ -526,19 +526,19 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>332.253911813027</v>
+        <v>354.290218159088</v>
       </c>
       <c r="C5" t="n">
-        <v>173.757672545719</v>
+        <v>223.787851237448</v>
       </c>
       <c r="D5" t="n">
-        <v>123.285803261325</v>
+        <v>175.475137980663</v>
       </c>
       <c r="E5" t="n">
-        <v>635.325394831198</v>
+        <v>560.895321122821</v>
       </c>
       <c r="F5" t="n">
-        <v>895.420713454435</v>
+        <v>715.323892191764</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>44805</v>
@@ -564,19 +564,19 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>356.468084884384</v>
+        <v>347.704753194852</v>
       </c>
       <c r="C6" t="n">
-        <v>185.477397166615</v>
+        <v>218.400085104393</v>
       </c>
       <c r="D6" t="n">
-        <v>131.248268722625</v>
+        <v>170.74295328481</v>
       </c>
       <c r="E6" t="n">
-        <v>685.094235105064</v>
+        <v>553.564781517848</v>
       </c>
       <c r="F6" t="n">
-        <v>968.161308166919</v>
+        <v>708.073704175811</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>44835</v>
@@ -602,19 +602,19 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>398.046003495108</v>
+        <v>426.046423337533</v>
       </c>
       <c r="C7" t="n">
-        <v>206.071077475832</v>
+        <v>266.129455582765</v>
       </c>
       <c r="D7" t="n">
-        <v>145.432722613506</v>
+        <v>207.447970476123</v>
       </c>
       <c r="E7" t="n">
-        <v>768.86394169997</v>
+        <v>682.057363553482</v>
       </c>
       <c r="F7" t="n">
-        <v>1089.44271998188</v>
+        <v>874.993158149969</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>44866</v>
@@ -640,19 +640,19 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>425.385222389713</v>
+        <v>429.764875224517</v>
       </c>
       <c r="C8" t="n">
-        <v>219.127156157424</v>
+        <v>266.986183646845</v>
       </c>
       <c r="D8" t="n">
-        <v>154.238425153737</v>
+        <v>207.513384997206</v>
       </c>
       <c r="E8" t="n">
-        <v>825.788052018282</v>
+        <v>691.788037320513</v>
       </c>
       <c r="F8" t="n">
-        <v>1173.20043463346</v>
+        <v>890.052696982564</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>44896</v>
@@ -678,19 +678,19 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>477.154245925927</v>
+        <v>489.495271449706</v>
       </c>
       <c r="C9" t="n">
-        <v>244.578822301407</v>
+        <v>302.451167533124</v>
       </c>
       <c r="D9" t="n">
-        <v>171.701901360131</v>
+        <v>234.405605232582</v>
       </c>
       <c r="E9" t="n">
-        <v>930.890795297731</v>
+        <v>792.212583359856</v>
       </c>
       <c r="F9" t="n">
-        <v>1325.99681542028</v>
+        <v>1022.18383614965</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>44927</v>
@@ -716,19 +716,19 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>348.522078869853</v>
+        <v>346.849048988042</v>
       </c>
       <c r="C10" t="n">
-        <v>177.767543165781</v>
+        <v>213.168147624976</v>
       </c>
       <c r="D10" t="n">
-        <v>124.473527894668</v>
+        <v>164.741978874822</v>
       </c>
       <c r="E10" t="n">
-        <v>683.294809033202</v>
+        <v>564.363222762338</v>
       </c>
       <c r="F10" t="n">
-        <v>975.851183092941</v>
+        <v>730.258696693949</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>44958</v>
@@ -754,19 +754,19 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>467.671795054768</v>
+        <v>468.359011930199</v>
       </c>
       <c r="C11" t="n">
-        <v>237.378286240605</v>
+        <v>286.326150256097</v>
       </c>
       <c r="D11" t="n">
-        <v>165.78376845275</v>
+        <v>220.661013853583</v>
       </c>
       <c r="E11" t="n">
-        <v>921.385487078875</v>
+        <v>766.119908572904</v>
       </c>
       <c r="F11" t="n">
-        <v>1319.29024132471</v>
+        <v>994.104759265659</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>44986</v>
@@ -792,19 +792,19 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>386.739216073785</v>
+        <v>391.011846287</v>
       </c>
       <c r="C12" t="n">
-        <v>195.34884465406</v>
+        <v>237.791792679264</v>
       </c>
       <c r="D12" t="n">
-        <v>136.08065538741</v>
+        <v>182.749856592353</v>
       </c>
       <c r="E12" t="n">
-        <v>765.641698645475</v>
+        <v>642.958540385743</v>
       </c>
       <c r="F12" t="n">
-        <v>1099.10714953246</v>
+        <v>836.609487895851</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>45017</v>
@@ -830,19 +830,19 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>369.570814609295</v>
+        <v>353.502384772908</v>
       </c>
       <c r="C13" t="n">
-        <v>185.779585447114</v>
+        <v>213.868992711196</v>
       </c>
       <c r="D13" t="n">
-        <v>129.085045291579</v>
+        <v>163.914038952982</v>
       </c>
       <c r="E13" t="n">
-        <v>735.186197569911</v>
+        <v>584.301326040663</v>
       </c>
       <c r="F13" t="n">
-        <v>1058.08218684405</v>
+        <v>762.374820597145</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>45047</v>
@@ -868,19 +868,19 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>366.525309894669</v>
+        <v>354.379574334572</v>
       </c>
       <c r="C14" t="n">
-        <v>183.369260739749</v>
+        <v>213.302369170031</v>
       </c>
       <c r="D14" t="n">
-        <v>127.088009489957</v>
+        <v>163.036304028169</v>
       </c>
       <c r="E14" t="n">
-        <v>732.624444530259</v>
+        <v>588.764593633951</v>
       </c>
       <c r="F14" t="n">
-        <v>1057.06906050801</v>
+        <v>770.287841435942</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>45078</v>
@@ -906,19 +906,19 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>403.879406356997</v>
+        <v>414.440794375639</v>
       </c>
       <c r="C15" t="n">
-        <v>201.099398193969</v>
+        <v>248.18944972131</v>
       </c>
       <c r="D15" t="n">
-        <v>139.02613907947</v>
+        <v>189.192570601029</v>
       </c>
       <c r="E15" t="n">
-        <v>811.134077695972</v>
+        <v>692.056701989468</v>
       </c>
       <c r="F15" t="n">
-        <v>1173.29428810534</v>
+        <v>907.864254378796</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>45108</v>
@@ -944,19 +944,19 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>383.065759803637</v>
+        <v>385.72999617219</v>
       </c>
       <c r="C16" t="n">
-        <v>189.837872815489</v>
+        <v>229.83686934484</v>
       </c>
       <c r="D16" t="n">
-        <v>130.913245731851</v>
+        <v>174.736662679753</v>
       </c>
       <c r="E16" t="n">
-        <v>772.97208485137</v>
+        <v>647.361889200473</v>
       </c>
       <c r="F16" t="n">
-        <v>1120.89021636896</v>
+        <v>851.496346932568</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>45139</v>
@@ -982,19 +982,19 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>332.253911813027</v>
+        <v>354.290218159088</v>
       </c>
       <c r="C17" t="n">
-        <v>163.886724610485</v>
+        <v>210.054471703416</v>
       </c>
       <c r="D17" t="n">
-        <v>112.737082736841</v>
+        <v>159.276232786761</v>
       </c>
       <c r="E17" t="n">
-        <v>673.591239177138</v>
+        <v>597.566705746894</v>
       </c>
       <c r="F17" t="n">
-        <v>979.204528227378</v>
+        <v>788.074632900581</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>45170</v>
@@ -1020,19 +1020,19 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>356.468084884384</v>
+        <v>347.704753194852</v>
       </c>
       <c r="C18" t="n">
-        <v>175.013636686773</v>
+        <v>205.13525538897</v>
       </c>
       <c r="D18" t="n">
-        <v>120.094824825215</v>
+        <v>155.140385580602</v>
       </c>
       <c r="E18" t="n">
-        <v>726.054826050841</v>
+        <v>589.360396217848</v>
       </c>
       <c r="F18" t="n">
-        <v>1058.07636362413</v>
+        <v>779.285129025804</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>45200</v>
@@ -1058,19 +1058,19 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>398.046003495108</v>
+        <v>426.046423337533</v>
       </c>
       <c r="C19" t="n">
-        <v>194.52490918662</v>
+        <v>250.128609083048</v>
       </c>
       <c r="D19" t="n">
-        <v>133.156991648464</v>
+        <v>188.679169394542</v>
       </c>
       <c r="E19" t="n">
-        <v>814.50042342097</v>
+        <v>725.688898619499</v>
       </c>
       <c r="F19" t="n">
-        <v>1189.87834537982</v>
+        <v>962.032827583323</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>45231</v>
@@ -1096,19 +1096,19 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>425.385222389713</v>
+        <v>429.764875224517</v>
       </c>
       <c r="C20" t="n">
-        <v>206.932149606291</v>
+        <v>251.092327218133</v>
       </c>
       <c r="D20" t="n">
-        <v>141.305771804055</v>
+        <v>188.92101993617</v>
       </c>
       <c r="E20" t="n">
-        <v>874.453717181334</v>
+        <v>735.577426929064</v>
       </c>
       <c r="F20" t="n">
-        <v>1280.57463695444</v>
+        <v>977.645833370728</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>45261</v>
@@ -1134,19 +1134,19 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>477.154245925927</v>
+        <v>489.495271449706</v>
       </c>
       <c r="C21" t="n">
-        <v>231.057800605199</v>
+        <v>284.620319496079</v>
       </c>
       <c r="D21" t="n">
-        <v>157.39917260258</v>
+        <v>213.603784930905</v>
       </c>
       <c r="E21" t="n">
-        <v>985.364587600151</v>
+        <v>841.842989972898</v>
       </c>
       <c r="F21" t="n">
-        <v>1446.48901668628</v>
+        <v>1121.72928419376</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>45292</v>
@@ -1172,19 +1172,19 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>348.522078869853</v>
+        <v>346.849048988042</v>
       </c>
       <c r="C22" t="n">
-        <v>168.004466224242</v>
+        <v>200.720202975379</v>
       </c>
       <c r="D22" t="n">
-        <v>114.171863110406</v>
+        <v>150.258836026708</v>
       </c>
       <c r="E22" t="n">
-        <v>723.002442670995</v>
+        <v>599.362998844048</v>
       </c>
       <c r="F22" t="n">
-        <v>1063.90170179059</v>
+        <v>800.646843574148</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>45323</v>
@@ -1210,19 +1210,19 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>467.671795054768</v>
+        <v>468.359011930199</v>
       </c>
       <c r="C23" t="n">
-        <v>224.425698615166</v>
+        <v>269.761810132133</v>
       </c>
       <c r="D23" t="n">
-        <v>152.15062792858</v>
+        <v>201.439543380683</v>
       </c>
       <c r="E23" t="n">
-        <v>974.562669245795</v>
+        <v>813.162411494742</v>
       </c>
       <c r="F23" t="n">
-        <v>1437.50249911827</v>
+        <v>1088.96277451187</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>45352</v>
@@ -1248,19 +1248,19 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>386.739216073785</v>
+        <v>391.011846287</v>
       </c>
       <c r="C24" t="n">
-        <v>184.757662461656</v>
+        <v>224.160910700635</v>
       </c>
       <c r="D24" t="n">
-        <v>124.960529738473</v>
+        <v>166.973930154427</v>
       </c>
       <c r="E24" t="n">
-        <v>809.531898469468</v>
+        <v>682.055865399976</v>
       </c>
       <c r="F24" t="n">
-        <v>1196.91571060391</v>
+        <v>915.653502288451</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>45383</v>
@@ -1286,19 +1286,19 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>369.570814609295</v>
+        <v>353.502384772908</v>
       </c>
       <c r="C25" t="n">
-        <v>175.770707143456</v>
+        <v>201.719385382846</v>
       </c>
       <c r="D25" t="n">
-        <v>118.602092811799</v>
+        <v>149.88905337403</v>
       </c>
       <c r="E25" t="n">
-        <v>777.049766884682</v>
+        <v>619.493936108135</v>
       </c>
       <c r="F25" t="n">
-        <v>1151.6035153588</v>
+        <v>833.70955534892</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>45413</v>
@@ -1324,19 +1324,19 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>366.525309894669</v>
+        <v>354.379574334572</v>
       </c>
       <c r="C26" t="n">
-        <v>173.551721394294</v>
+        <v>201.291675447998</v>
       </c>
       <c r="D26" t="n">
-        <v>116.830527987965</v>
+        <v>149.207390681766</v>
       </c>
       <c r="E26" t="n">
-        <v>774.067820901488</v>
+        <v>623.895063847266</v>
       </c>
       <c r="F26" t="n">
-        <v>1149.87756288512</v>
+        <v>841.680040993437</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>45444</v>
@@ -1362,19 +1362,19 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>403.879406356997</v>
+        <v>414.440794375639</v>
       </c>
       <c r="C27" t="n">
-        <v>190.39876261478</v>
+        <v>234.335236506946</v>
       </c>
       <c r="D27" t="n">
-        <v>127.873071177872</v>
+        <v>173.281777266598</v>
       </c>
       <c r="E27" t="n">
-        <v>856.720771916497</v>
+        <v>732.972021634569</v>
       </c>
       <c r="F27" t="n">
-        <v>1275.62881986608</v>
+        <v>991.224667429697</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>45474</v>
@@ -1400,19 +1400,19 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>383.065759803637</v>
+        <v>385.72999617219</v>
       </c>
       <c r="C28" t="n">
-        <v>179.79778546273</v>
+        <v>217.11619508347</v>
       </c>
       <c r="D28" t="n">
-        <v>120.473843996973</v>
+        <v>160.164632926825</v>
       </c>
       <c r="E28" t="n">
-        <v>816.135615665605</v>
+        <v>685.290334467203</v>
       </c>
       <c r="F28" t="n">
-        <v>1218.01854631305</v>
+        <v>928.966821376694</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>45505</v>
@@ -1438,19 +1438,19 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>332.253911813027</v>
+        <v>354.290218159088</v>
       </c>
       <c r="C29" t="n">
-        <v>155.271104032332</v>
+        <v>198.525841119535</v>
       </c>
       <c r="D29" t="n">
-        <v>103.8002306056</v>
+        <v>146.10285125873</v>
       </c>
       <c r="E29" t="n">
-        <v>710.967198971369</v>
+        <v>632.268111674371</v>
       </c>
       <c r="F29" t="n">
-        <v>1063.5107578374</v>
+        <v>859.13147896704</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>45536</v>
@@ -1476,19 +1476,19 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>356.468084884384</v>
+        <v>347.704753194852</v>
       </c>
       <c r="C30" t="n">
-        <v>165.867569720523</v>
+        <v>193.969122952683</v>
       </c>
       <c r="D30" t="n">
-        <v>110.630302690424</v>
+        <v>142.412936261593</v>
       </c>
       <c r="E30" t="n">
-        <v>766.090054585385</v>
+        <v>623.287838568951</v>
       </c>
       <c r="F30" t="n">
-        <v>1148.5957504493</v>
+        <v>848.929869490358</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>45566</v>
@@ -1514,19 +1514,19 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>398.046003495108</v>
+        <v>426.046423337533</v>
       </c>
       <c r="C31" t="n">
-        <v>184.418702135746</v>
+        <v>236.623385299924</v>
       </c>
       <c r="D31" t="n">
-        <v>122.723609518458</v>
+        <v>173.323504559634</v>
       </c>
       <c r="E31" t="n">
-        <v>859.135321220315</v>
+        <v>767.107420970377</v>
       </c>
       <c r="F31" t="n">
-        <v>1291.03618708833</v>
+        <v>1047.26450864171</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>45597</v>
@@ -1552,19 +1552,19 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>425.385222389713</v>
+        <v>429.764875224517</v>
       </c>
       <c r="C32" t="n">
-        <v>196.243533564057</v>
+        <v>237.642858324415</v>
       </c>
       <c r="D32" t="n">
-        <v>130.297042483753</v>
+        <v>173.666127073936</v>
       </c>
       <c r="E32" t="n">
-        <v>922.081783492141</v>
+        <v>777.207652184552</v>
       </c>
       <c r="F32" t="n">
-        <v>1388.76972169271</v>
+        <v>1063.52258260537</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>45627</v>
@@ -1590,19 +1590,19 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>477.154245925927</v>
+        <v>489.495271449706</v>
       </c>
       <c r="C33" t="n">
-        <v>219.191262742929</v>
+        <v>269.494241064644</v>
       </c>
       <c r="D33" t="n">
-        <v>145.205778349675</v>
+        <v>196.488809109169</v>
       </c>
       <c r="E33" t="n">
-        <v>1038.71008157913</v>
+        <v>889.093658643883</v>
       </c>
       <c r="F33" t="n">
-        <v>1567.95533203138</v>
+        <v>1219.43647507424</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>45658</v>
@@ -1628,19 +1628,19 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>348.522078869853</v>
+        <v>346.849048988042</v>
       </c>
       <c r="C34" t="n">
-        <v>159.424950426777</v>
+        <v>190.135126442063</v>
       </c>
       <c r="D34" t="n">
-        <v>105.376491309097</v>
+        <v>138.310749115424</v>
       </c>
       <c r="E34" t="n">
-        <v>761.911100706618</v>
+        <v>632.730337813552</v>
       </c>
       <c r="F34" t="n">
-        <v>1152.70149870019</v>
+        <v>869.811374411052</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>45689</v>
@@ -1666,19 +1666,19 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>467.671795054768</v>
+        <v>468.359011930199</v>
       </c>
       <c r="C35" t="n">
-        <v>213.028946364142</v>
+        <v>255.643657002308</v>
       </c>
       <c r="D35" t="n">
-        <v>140.494099350256</v>
+        <v>185.541451743333</v>
       </c>
       <c r="E35" t="n">
-        <v>1026.7004161767</v>
+        <v>858.070044171883</v>
       </c>
       <c r="F35" t="n">
-        <v>1556.76935117738</v>
+        <v>1182.27038753411</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>45717</v>
@@ -1704,19 +1704,19 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>386.739216073785</v>
+        <v>391.011846287</v>
       </c>
       <c r="C36" t="n">
-        <v>175.42716216801</v>
+        <v>212.516909382296</v>
       </c>
       <c r="D36" t="n">
-        <v>115.439245759769</v>
+        <v>153.892952524241</v>
       </c>
       <c r="E36" t="n">
-        <v>852.588729139462</v>
+        <v>719.426347678221</v>
       </c>
       <c r="F36" t="n">
-        <v>1295.63581488238</v>
+        <v>993.48450613868</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>45748</v>
@@ -1742,19 +1742,19 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>369.570814609295</v>
+        <v>353.502384772908</v>
       </c>
       <c r="C37" t="n">
-        <v>166.942557438311</v>
+        <v>191.318175697883</v>
       </c>
       <c r="D37" t="n">
-        <v>109.613982334147</v>
+        <v>138.231683382921</v>
       </c>
       <c r="E37" t="n">
-        <v>818.141216396833</v>
+        <v>653.173362040978</v>
       </c>
       <c r="F37" t="n">
-        <v>1246.03252342954</v>
+        <v>904.018044068563</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>45778</v>
